--- a/data/manual/rec_primaria_cap.xlsx
+++ b/data/manual/rec_primaria_cap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15440" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>state</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>parsing error</t>
+  </si>
+  <si>
+    <t>pb2014</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>values in thousands</t>
   </si>
 </sst>
 </file>
@@ -407,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,6 +513,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2014</v>
+      </c>
+      <c r="D6" s="1">
+        <v>218331000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:E5">
     <sortCondition ref="A2"/>
